--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test\testcase\testCaseAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882615D4-FD81-A34B-BE87-8DAA2CCB0B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E5529B-2964-4715-8C28-483197BADE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="680" windowWidth="14640" windowHeight="16380" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="2550" yWindow="1110" windowWidth="17940" windowHeight="9810" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testCasejModle" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>业务编号</t>
   </si>
@@ -86,13 +86,29 @@
   </si>
   <si>
     <t>{"isApp":"False","isTransmit":{"tokenName":"[tokenKey,valueKey]","transmitName":["transmitKey",{"valueKey":"valueKey","getValuePath":"getValuePath"}]}}</t>
+  </si>
+  <si>
+    <t>https://tbroker.lifeat.cn:45788/easylife/rest/broker/login</t>
+  </si>
+  <si>
+    <t>{"$.status.code":"1000"}</t>
+  </si>
+  <si>
+    <t>{"isApp":"Y","isTransmit":{"tokenName":["token","token"],"transmitName":["brokerCode",{"valueKey":"brokerCode","getValuePath":"$.data.brokerCode"}]}}</t>
+  </si>
+  <si>
+    <t>{"isDefine":"","paData":{"urlData":"","paramData":{
+	"brokerPhone": "15718868478",
+	"clientId": "77a8a4b9e5ba1c9b6a21ca1b839c3581",
+	"password": "haoshenghuo"
+}}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,8 +197,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -198,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,12 +516,12 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +568,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="119" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="115.5">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -612,15 +628,15 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +683,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="119" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="280.5">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -681,19 +697,19 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -715,9 +731,7 @@
       <c r="AA2" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{39F0E52D-4A03-2F4C-8A16-6536090A7117}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test\testcase\testCaseAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E5529B-2964-4715-8C28-483197BADE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F86D38F-3793-0441-B460-08648F3C643D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1110" windowWidth="17940" windowHeight="9810" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="2560" yWindow="1120" windowWidth="20800" windowHeight="13860" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testCasejModle" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t>{"isDefine":"","paData":{"urlData":"","paramData":{
 	"brokerPhone": "15718868478",
 	"clientId": "77a8a4b9e5ba1c9b6a21ca1b839c3581",
-	"password": "haoshenghuo"
+	"password": "123456"
 }}}</t>
   </si>
 </sst>
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,8 +197,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -516,12 +516,12 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +568,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="115.5">
+    <row r="2" spans="1:27" ht="119" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -628,15 +628,15 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +683,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="280.5">
+    <row r="2" spans="1:27" ht="289" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F86D38F-3793-0441-B460-08648F3C643D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E054108-D072-9341-AAC7-B0610EF8B1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1120" windowWidth="20800" windowHeight="13860" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="12080" yWindow="460" windowWidth="24460" windowHeight="16260" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testCasejModle" sheetId="1" r:id="rId1"/>
     <sheet name="testSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="parameterSheet" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>业务编号</t>
   </si>
@@ -92,9 +93,6 @@
   </si>
   <si>
     <t>{"$.status.code":"1000"}</t>
-  </si>
-  <si>
-    <t>{"isApp":"Y","isTransmit":{"tokenName":["token","token"],"transmitName":["brokerCode",{"valueKey":"brokerCode","getValuePath":"$.data.brokerCode"}]}}</t>
   </si>
   <si>
     <t>{"isDefine":"","paData":{"urlData":"","paramData":{
@@ -103,12 +101,78 @@
 	"password": "123456"
 }}}</t>
   </si>
+  <si>
+    <t>{"isDefine":"","paData":{"urlData":"","paramData":{"cityId":"{brokerCity}","brokerCode":"{brokerCode}","sort":"0","propertyType":"0"
+}}}</t>
+  </si>
+  <si>
+    <t>testExecuteID</t>
+  </si>
+  <si>
+    <t>parameterData</t>
+  </si>
+  <si>
+    <t>operateId</t>
+  </si>
+  <si>
+    <t>BOHUI02</t>
+  </si>
+  <si>
+    <t>BOHUI03</t>
+  </si>
+  <si>
+    <t>https://tbroker.lifeat.cn:45788/easylife/rest/sale/allEstateDevThird?pageNum=1</t>
+  </si>
+  <si>
+    <t>https://tbroker.lifeat.cn:45788/easylife/rest/broker/customer/user/follow</t>
+  </si>
+  <si>
+    <r>
+      <t>{"isDefine":"","paData":{"urlData":"","paramData":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>{"customerName":"{customerName}","customerPhone":"{customerPhone}","brokerCode":"{brokerCode}","customerSex":"{customerSex}","customerLook":{},"edition":"v1.3.0","followType":"1","estateProjectDevName":"{estateProjectDevName}","customerRerport":{"arriveTime":"{arriveTime}"},"customerPurchase":{"houseType":{}},"estateProjectDevId":"{estateProjectDevId}","isHiddenPhone":"{isHiddenPhone}"}}}</t>
+    </r>
+  </si>
+  <si>
+    <t>驳回2</t>
+  </si>
+  <si>
+    <t>驳回3</t>
+  </si>
+  <si>
+    <t>客户跟进2</t>
+  </si>
+  <si>
+    <t>客户跟进3</t>
+  </si>
+  <si>
+    <t>EXEKHGJ001</t>
+  </si>
+  <si>
+    <t>{"BOHUI03":{"customerName":"王小王","customerPhone":"13712321234","customerSex":"0","arriveTime":"2020-06-27","isHiddenPhone":"isHiddenPhone"}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"Y","isTransmit":{"tokenName":"","transmitName":""}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["brokerCode",{"valueKey":"brokerCode","getValuePath":"$.data.brokerCode"}],["token",{"valueKey":"token","getValuePath":"$.data.token"}],["brokerCity",{"valueKey":"brokerCity","getValuePath":"$.data.brokerCity"}]]}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["estateProjectDevName",{"valueKey":"name","getValuePath":{"threeListAll":"$.data","threeList":"devId-10881-name"}}],["estateProjectDevId",{"valueKey":"devId","getValuePath":{"threeListAll":"$.data","threeList":"name-大股东法国队-devId"}}]]}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +217,18 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,6 +269,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -510,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB8F12-379C-A84D-8F7B-1B4833A489D8}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,6 +695,23 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{7E36EDDA-2DE7-BE4C-B980-6505FBAE6FA5}"/>
@@ -625,15 +722,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F50512-610C-784A-A4AE-029398A82ACB}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -683,7 +782,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="289" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -703,10 +802,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>19</v>
@@ -730,8 +829,111 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+      <c r="G5" s="7"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE82C14-4CC0-0845-AF0A-1A08A1085CF0}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E054108-D072-9341-AAC7-B0610EF8B1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D3C3A-EF72-0141-84CE-87AB04FA8ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="460" windowWidth="24460" windowHeight="16260" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="4340" yWindow="460" windowWidth="24460" windowHeight="16260" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testCasejModle" sheetId="1" r:id="rId1"/>
@@ -95,13 +95,6 @@
     <t>{"$.status.code":"1000"}</t>
   </si>
   <si>
-    <t>{"isDefine":"","paData":{"urlData":"","paramData":{
-	"brokerPhone": "15718868478",
-	"clientId": "77a8a4b9e5ba1c9b6a21ca1b839c3581",
-	"password": "123456"
-}}}</t>
-  </si>
-  <si>
     <t>{"isDefine":"","paData":{"urlData":"","paramData":{"cityId":"{brokerCity}","brokerCode":"{brokerCode}","sort":"0","propertyType":"0"
 }}}</t>
   </si>
@@ -165,7 +158,14 @@
     <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["brokerCode",{"valueKey":"brokerCode","getValuePath":"$.data.brokerCode"}],["token",{"valueKey":"token","getValuePath":"$.data.token"}],["brokerCity",{"valueKey":"brokerCity","getValuePath":"$.data.brokerCity"}]]}}</t>
   </si>
   <si>
-    <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["estateProjectDevName",{"valueKey":"name","getValuePath":{"threeListAll":"$.data","threeList":"devId-10881-name"}}],["estateProjectDevId",{"valueKey":"devId","getValuePath":{"threeListAll":"$.data","threeList":"name-大股东法国队-devId"}}]]}}</t>
+    <t>{"isDefine":"","paData":{"urlData":"","paramData":{
+	"brokerPhone": "15718868478",
+	"clientId": "8c82592b934908becdc2374e52dbbc7d",
+	"password": "123456"
+}}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["estateProjectDevName",{"valueKey":"name","getValuePath":{"threeListAll":"$.data","threeList":"devId-11392-name"}}],["estateProjectDevId",{"valueKey":"devId","getValuePath":{"threeListAll":"$.data","threeList":"name-大股东法国队-devId"}}]]}}</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F50512-610C-784A-A4AE-029398A82ACB}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -802,10 +802,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>19</v>
@@ -834,25 +834,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>19</v>
@@ -863,22 +863,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>38</v>
@@ -913,13 +913,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -927,10 +927,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D3C3A-EF72-0141-84CE-87AB04FA8ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D992C6AB-CCEF-4483-BED7-97426C6D1387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="460" windowWidth="24460" windowHeight="16260" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="31440" yWindow="3105" windowWidth="15780" windowHeight="11490" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="testCasejModle" sheetId="1" r:id="rId1"/>
-    <sheet name="testSheet" sheetId="2" r:id="rId2"/>
-    <sheet name="parameterSheet" sheetId="3" r:id="rId3"/>
+    <sheet name="testSheet" sheetId="2" r:id="rId1"/>
+    <sheet name="parameterSheet" sheetId="4" r:id="rId2"/>
+    <sheet name="testCasejModle" sheetId="1" r:id="rId3"/>
+    <sheet name="parameterSheetDmodle" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>业务编号</t>
   </si>
@@ -74,19 +75,7 @@
     <t>驳回</t>
   </si>
   <si>
-    <t>https://tcmsapi.lifeat.cn:45788/city/cityList</t>
-  </si>
-  <si>
     <t>POST</t>
-  </si>
-  <si>
-    <t>{"$.data.brokeCode":"brokeCode"}</t>
-  </si>
-  <si>
-    <t>{"isDefine":{"keyName","print('python')"},"PaData":{"urlData":{},"paramData":{}}}</t>
-  </si>
-  <si>
-    <t>{"isApp":"False","isTransmit":{"tokenName":"[tokenKey,valueKey]","transmitName":["transmitKey",{"valueKey":"valueKey","getValuePath":"getValuePath"}]}}</t>
   </si>
   <si>
     <t>https://tbroker.lifeat.cn:45788/easylife/rest/broker/login</t>
@@ -149,9 +138,6 @@
     <t>EXEKHGJ001</t>
   </si>
   <si>
-    <t>{"BOHUI03":{"customerName":"王小王","customerPhone":"13712321234","customerSex":"0","arriveTime":"2020-06-27","isHiddenPhone":"isHiddenPhone"}}</t>
-  </si>
-  <si>
     <t>{"isApp":"Y","isTransmit":{"tokenName":"","transmitName":""}}</t>
   </si>
   <si>
@@ -165,14 +151,20 @@
 }}}</t>
   </si>
   <si>
-    <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["estateProjectDevName",{"valueKey":"name","getValuePath":{"threeListAll":"$.data","threeList":"devId-11392-name"}}],["estateProjectDevId",{"valueKey":"devId","getValuePath":{"threeListAll":"$.data","threeList":"name-大股东法国队-devId"}}]]}}</t>
+    <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["brokerCode",{"valueKey":"brokerCode","getValuePath":""}],["estateProjectDevName",{"valueKey":"name","getValuePath":{"threeListAll":"$.data","threeList":"devId-11392-name"}}],["estateProjectDevId",{"valueKey":"devId","getValuePath":{"threeListAll":"$.data","threeList":"name-大股东法国队-devId"}}]]}}</t>
+  </si>
+  <si>
+    <t>{"$.status.code":"1000","estateProjectDevId":{"jsonExpectValue":"11392","getValuePath":{"threeListAll":"$.data","threeList":"name-大股东法国队-devId"}}}</t>
+  </si>
+  <si>
+    <t>{"BOHUI03":{"customerName":"王小王","customerPhone":"13712321236","customerSex":"0","arriveTime":"2020-06-29","isHiddenPhone":"0"}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,8 +269,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -294,7 +286,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -589,19 +581,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB8F12-379C-A84D-8F7B-1B4833A489D8}">
-  <dimension ref="A1:AA13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F50512-610C-784A-A4AE-029398A82ACB}">
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +642,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="119" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="132">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -662,16 +656,16 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>15</v>
@@ -695,47 +689,134 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="1:27" ht="132">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="219">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="17.25">
+      <c r="G5" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{7E36EDDA-2DE7-BE4C-B980-6505FBAE6FA5}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5856CCC4-F115-41BD-A2B6-6CC7E38E7349}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD011588-E5CA-409D-8CBF-E32CE5D39C2F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="63">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F50512-610C-784A-A4AE-029398A82ACB}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB8F12-379C-A84D-8F7B-1B4833A489D8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +863,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="132">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -796,19 +877,19 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -829,108 +910,109 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="132">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="219">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="17.25">
       <c r="G5" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{6FBD4830-E253-4BEE-864D-4400238B5668}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE82C14-4CC0-0845-AF0A-1A08A1085CF0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="63">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D992C6AB-CCEF-4483-BED7-97426C6D1387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15537D9E-CB03-E84C-82C5-F00749A7AFFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="3105" windowWidth="15780" windowHeight="11490" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheet" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>业务编号</t>
   </si>
@@ -159,12 +159,15 @@
   <si>
     <t>{"BOHUI03":{"customerName":"王小王","customerPhone":"13712321236","customerSex":"0","arriveTime":"2020-06-29","isHiddenPhone":"0"}}</t>
   </si>
+  <si>
+    <t>{"BOHUI03":{"customerName":"王小王","customerPhone":"13712321237","customerSex":"0","arriveTime":"2020-06-29","isHiddenPhone":"0"}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,8 +272,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -286,7 +289,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -588,14 +591,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +645,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="132">
+    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -689,7 +692,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="132">
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -718,7 +721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="219">
+    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -747,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="17.25">
+    <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="G5" s="7"/>
     </row>
   </sheetData>
@@ -768,13 +771,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -785,7 +788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63">
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -793,7 +796,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -809,14 +812,14 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +866,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="132">
+    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -910,7 +913,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="132">
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -939,7 +942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="219">
+    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -968,7 +971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="17.25">
+    <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.25">
       <c r="G5" s="7"/>
     </row>
   </sheetData>
@@ -987,13 +990,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63">
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15537D9E-CB03-E84C-82C5-F00749A7AFFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDBD42E-4C90-430E-A511-11F8FBF62C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="20295" yWindow="195" windowWidth="15780" windowHeight="15150" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheet" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="testCasejModle" sheetId="1" r:id="rId3"/>
     <sheet name="parameterSheetDmodle" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
   <si>
     <t>业务编号</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>客户跟进</t>
-  </si>
-  <si>
-    <t>驳回</t>
   </si>
   <si>
     <t>POST</t>
@@ -129,12 +126,6 @@
     <t>驳回3</t>
   </si>
   <si>
-    <t>客户跟进2</t>
-  </si>
-  <si>
-    <t>客户跟进3</t>
-  </si>
-  <si>
     <t>EXEKHGJ001</t>
   </si>
   <si>
@@ -160,14 +151,124 @@
     <t>{"BOHUI03":{"customerName":"王小王","customerPhone":"13712321236","customerSex":"0","arriveTime":"2020-06-29","isHiddenPhone":"0"}}</t>
   </si>
   <si>
-    <t>{"BOHUI03":{"customerName":"王小王","customerPhone":"13712321237","customerSex":"0","arriveTime":"2020-06-29","isHiddenPhone":"0"}}</t>
+    <t>KHGJ002</t>
+  </si>
+  <si>
+    <t>WEBYJ01</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>创建佣金</t>
+  </si>
+  <si>
+    <t>https://uat-pms-sso.hopsontong.com:11013/api/login</t>
+  </si>
+  <si>
+    <r>
+      <t>{"isDefine":"","paData":{"urlData":"","paramData":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>{"mobile":{userMobile},"appFlag":"easylife-cms-api-gateway","afsSessionId":"WjFlCkIWDpHT9odN","afsSig":"QuAncgq0hrmAVNX0","afsToken":"FFFF0N00000000009184:1591688607383:0.9844042761792562","afsScene":"nc_login","password":"{userPD}"}}}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"isApp":"N","isTransmit":{"tokenName":"","transmitName":""}}</t>
+  </si>
+  <si>
+    <t>{"$.code":"200"}</t>
+  </si>
+  <si>
+    <t>WEBYJ02</t>
+  </si>
+  <si>
+    <t>佣金创建</t>
+  </si>
+  <si>
+    <t>https://tcmsapi.lifeat.cn:45788/city/cityList</t>
+  </si>
+  <si>
+    <r>
+      <t>{"isDefine":"","paData":{"urlData":"","paramData":""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>}}</t>
+    </r>
+  </si>
+  <si>
+    <t>EXEKHGJ002</t>
+  </si>
+  <si>
+    <t>{"WEBYJ02":{"userMobile":15718868478,"userPD":"123456"}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"N","isTransmit":{"tokenName":[["token":"token"],["Authorization","token"]],"transmitName":["cityId",{"valueKey":"cityId","getValuePath":{"threeListAll":"$.data.cityList","threeList":"city-北京市-cityId"}}]}}</t>
+  </si>
+  <si>
+    <t>WEBYJ03</t>
+  </si>
+  <si>
+    <t>https://tcmsapi.lifeat.cn:45788/commission/brokerageType/listPageBrokerageTypes</t>
+  </si>
+  <si>
+    <r>
+      <t>{"isDefine":"","paData":{"urlData":"","paramData":{"pageNum":-1,"pageSize":0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>}}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"isApp":"N","isTransmit":{"tokenName":[["token":"token"],["Authorization","token"]],"transmitName":["brokerageTypeId",{"valueKey":"brokerageTypeCode","getValuePath":{"threeListAll":"$.data.list","threeList":"brokerageTypeCode-YJ20200506000002-id"}}]}}</t>
+  </si>
+  <si>
+    <r>
+      <t>{"isDefine":"","paData":{"urlData":"","paramData":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>{"mobile":"{userMobile}","appFlag":"easylife-cms-api-gateway","afsSessionId":"WjFlCkIWDpHT9odN","afsSig":"QuAncgq0hrmAVNX0","afsToken":"FFFF0N00000000009184:1591688607383:0.9844042761792562","afsScene":"nc_login","password":"{userPD}"}}}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"BOHUI03":{"customerName":"王小王","customerPhone":"13712321237","customerSex":"0","arriveTime":"2020-07-02","isHiddenPhone":"0"}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","token"],["Authorization","token"]],"transmitName":["cityId",{"valueKey":"cityId","getValuePath":{"threeListAll":"$.data.cityList","threeList":"city-北京市-cityId"}}]}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","token"],["Authorization","token"]],"transmitName":["brokerageTypeId",{"valueKey":"brokerageTypeCode","getValuePath":{"threeListAll":"$.data.list","threeList":"brokerageTypeCode-YJ20200506000002-id"}}]}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,14 +367,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -289,7 +389,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -585,20 +685,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F50512-610C-784A-A4AE-029398A82ACB}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +745,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="132">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -656,22 +756,22 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -692,71 +792,155 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="132">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:27" ht="219">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="162">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.25">
-      <c r="G5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="82.5">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="110.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{5856CCC4-F115-41BD-A2B6-6CC7E38E7349}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E2698303-F946-4D0C-8EC0-14DF7DA8F6CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -765,38 +949,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD011588-E5CA-409D-8CBF-E32CE5D39C2F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" ht="63">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.5">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -806,20 +1001,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB8F12-379C-A84D-8F7B-1B4833A489D8}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,7 +1061,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="132">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -877,22 +1072,22 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -913,72 +1108,157 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="132">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:27" ht="219">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="147.75">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.25">
-      <c r="G5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="82.5">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="110.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{6FBD4830-E253-4BEE-864D-4400238B5668}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -990,32 +1270,32 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" ht="63">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDBD42E-4C90-430E-A511-11F8FBF62C48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65CC688-BEF5-C449-9601-B767299D5242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20295" yWindow="195" windowWidth="15780" windowHeight="15150" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="12460" yWindow="900" windowWidth="15780" windowHeight="15160" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheet" sheetId="2" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <t>EXEKHGJ002</t>
   </si>
   <si>
-    <t>{"WEBYJ02":{"userMobile":15718868478,"userPD":"123456"}}</t>
-  </si>
-  <si>
     <t>{"isApp":"N","isTransmit":{"tokenName":[["token":"token"],["Authorization","token"]],"transmitName":["cityId",{"valueKey":"cityId","getValuePath":{"threeListAll":"$.data.cityList","threeList":"city-北京市-cityId"}}]}}</t>
   </si>
   <si>
@@ -258,17 +255,20 @@
     <t>{"BOHUI03":{"customerName":"王小王","customerPhone":"13712321237","customerSex":"0","arriveTime":"2020-07-02","isHiddenPhone":"0"}}</t>
   </si>
   <si>
-    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","token"],["Authorization","token"]],"transmitName":["cityId",{"valueKey":"cityId","getValuePath":{"threeListAll":"$.data.cityList","threeList":"city-北京市-cityId"}}]}}</t>
-  </si>
-  <si>
-    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","token"],["Authorization","token"]],"transmitName":["brokerageTypeId",{"valueKey":"brokerageTypeCode","getValuePath":{"threeListAll":"$.data.list","threeList":"brokerageTypeCode-YJ20200506000002-id"}}]}}</t>
+    <t>{"WEBYJ01":{"userMobile":15718868478,"userPD":"123456"}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","token"],["Authorization","token"]],"transmitName":[,["cityId",{"valueKey":"cityId","getValuePath":{"threeListAll":"$.data.cityList","threeList":"city-北京市-cityId"}}],["brokerageTypeId",{"valueKey":"brokerageTypeCode","getValuePath":{"threeListAll":"$.data.list","threeList":"brokerageTypeCode-YJ20200506000002-id"}}]]}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","token"],["Authorization","token"]],"transmitName":[["token",{"valueKey":"token","getValuePath":"$.data.token"],["applicationToken",{"valueKey":"applicationToken","getValuePath":"$.data.applicationToken"],["cityId",{"valueKey":"cityId","getValuePath":{"threeListAll":"$.data.cityList","threeList":"city-北京市-cityId"}}]]}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,8 +372,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -687,18 +687,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F50512-610C-784A-A4AE-029398A82ACB}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="132">
+    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="132">
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -821,7 +821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="219">
+    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -850,7 +850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="162">
+    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -870,7 +870,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>39</v>
@@ -879,7 +879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="82.5">
+    <row r="6" spans="1:27" ht="153" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -902,18 +902,18 @@
         <v>44</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="110.25">
+    <row r="7" spans="1:27" ht="153" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -922,16 +922,16 @@
         <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>40</v>
@@ -951,17 +951,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD011588-E5CA-409D-8CBF-E32CE5D39C2F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -972,7 +972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63">
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -980,10 +980,10 @@
         <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -991,7 +991,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1007,14 +1007,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="132">
+    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="132">
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="219">
+    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="147.75">
+    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="82.5">
+    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1218,18 +1218,18 @@
         <v>44</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="110.25">
+    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -1238,16 +1238,16 @@
         <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>40</v>
@@ -1270,13 +1270,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63">
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65CC688-BEF5-C449-9601-B767299D5242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F728998D-5AD6-4227-85F7-76C83494204D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="900" windowWidth="15780" windowHeight="15160" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="testSheet" sheetId="2" r:id="rId1"/>
+    <sheet name="testSheet" sheetId="5" r:id="rId1"/>
     <sheet name="parameterSheet" sheetId="4" r:id="rId2"/>
     <sheet name="testCasejModle" sheetId="1" r:id="rId3"/>
     <sheet name="parameterSheetDmodle" sheetId="3" r:id="rId4"/>
@@ -258,17 +258,17 @@
     <t>{"WEBYJ01":{"userMobile":15718868478,"userPD":"123456"}}</t>
   </si>
   <si>
-    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","token"],["Authorization","token"]],"transmitName":[,["cityId",{"valueKey":"cityId","getValuePath":{"threeListAll":"$.data.cityList","threeList":"city-北京市-cityId"}}],["brokerageTypeId",{"valueKey":"brokerageTypeCode","getValuePath":{"threeListAll":"$.data.list","threeList":"brokerageTypeCode-YJ20200506000002-id"}}]]}}</t>
-  </si>
-  <si>
-    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","token"],["Authorization","token"]],"transmitName":[["token",{"valueKey":"token","getValuePath":"$.data.token"],["applicationToken",{"valueKey":"applicationToken","getValuePath":"$.data.applicationToken"],["cityId",{"valueKey":"cityId","getValuePath":{"threeListAll":"$.data.cityList","threeList":"city-北京市-cityId"}}]]}}</t>
+    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","applicationToken"],["Authorization","applicationToken"]],"transmitName":[["token",{"valueKey":"token","getValuePath":"$.data.token"}],["applicationToken",{"valueKey":"applicationToken","getValuePath":"$.data.applicationToken"}]]}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","applicationToken"],["Authorization","applicationToken"]],"transmitName":[["cityId",{"valueKey":"cityId","getValuePath":{"threeListAll":"$.data.cityList","threeList":"city-北京市-cityId"}}],["brokerageTypeId",{"valueKey":"brokerageTypeCode","getValuePath":{"threeListAll":"$.data.list","threeList":"brokerageTypeCode-YJ20200506000002-id"}}]]}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,12 +312,6 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -372,8 +366,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -389,7 +383,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -684,21 +678,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F50512-610C-784A-A4AE-029398A82ACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCB4D60-8B68-4C7E-8A4E-DB3836BFA279}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +739,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="132">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -792,7 +786,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="132">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -821,7 +815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="219">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -850,7 +844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="162">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -879,7 +873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="153" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="115.5">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -902,13 +896,13 @@
         <v>44</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="153" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="148.5">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -931,19 +925,19 @@
         <v>49</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{E2698303-F946-4D0C-8EC0-14DF7DA8F6CB}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{6443F3AD-6685-4662-BDE2-2439294062F5}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{D8500D7E-C49B-409B-86EB-C19EF7393E89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -951,17 +945,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD011588-E5CA-409D-8CBF-E32CE5D39C2F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -972,7 +966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="63">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -983,7 +977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -1007,14 +1001,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1055,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="132">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1102,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="132">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="219">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="147.75">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="82.5">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1224,7 +1218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="110.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1270,13 +1264,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1287,7 +1281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="63">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F728998D-5AD6-4227-85F7-76C83494204D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5DD6C5-B601-4EF3-A70D-8F647A1D09CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheet" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
   <si>
     <t>业务编号</t>
   </si>
@@ -258,10 +258,25 @@
     <t>{"WEBYJ01":{"userMobile":15718868478,"userPD":"123456"}}</t>
   </si>
   <si>
-    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","applicationToken"],["Authorization","applicationToken"]],"transmitName":[["token",{"valueKey":"token","getValuePath":"$.data.token"}],["applicationToken",{"valueKey":"applicationToken","getValuePath":"$.data.applicationToken"}]]}}</t>
-  </si>
-  <si>
-    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","applicationToken"],["Authorization","applicationToken"]],"transmitName":[["cityId",{"valueKey":"cityId","getValuePath":{"threeListAll":"$.data.cityList","threeList":"city-北京市-cityId"}}],["brokerageTypeId",{"valueKey":"brokerageTypeCode","getValuePath":{"threeListAll":"$.data.list","threeList":"brokerageTypeCode-YJ20200506000002-id"}}]]}}</t>
+    <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["brokerCode",{"valueKey":"brokerCode","getValuePath":""}],["token",{"valueKey":"token","getValuePath":""}],["brokerCity",{"valueKey":"brokerCity","getValuePath":""}]]}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["brokerCode",{"valueKey":"brokerCode","getValuePath":""}],["estateProjectDevName",{"valueKey":"name","getValuePath":"devId-11392-name"}],["estateProjectDevId",{"valueKey":"devId","getValuePath":"name-大股东法国队-devId"}]]}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","applicationToken"],["Authorization","applicationToken"]],"transmitName":[["token",{"valueKey":"token","getValuePath":""}],["applicationToken",{"valueKey":"applicationToken","getValuePath":""}]]}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","applicationToken"],["Authorization","applicationToken"]],"transmitName":[["cityId",{"valueKey":"cityId","getValuePath":"city-北京市-cityId"}],["brokerageTypeId",{"valueKey":"brokerageTypeCode","getValuePath":"brokerageTypeCode-YJ20200506000002-id"}]]}}</t>
+  </si>
+  <si>
+    <t>{"code":{"jsonExpectValue":"1000","getValuePath":""}}</t>
+  </si>
+  <si>
+    <t>{"code":{"jsonExpectValue":"1000","getValuePath":""},"estateProjectDevId":{"jsonExpectValue":"11392","getValuePath":"name-大股东法国队-devId"}}</t>
+  </si>
+  <si>
+    <t>{"code":{"jsonExpectValue":"200","getValuePath":""}}</t>
   </si>
 </sst>
 </file>
@@ -681,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCB4D60-8B68-4C7E-8A4E-DB3836BFA279}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -765,7 +780,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -786,7 +801,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="132">
+    <row r="3" spans="1:27" ht="115.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -809,10 +824,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="219">
@@ -838,10 +853,10 @@
         <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="162">
@@ -870,10 +885,10 @@
         <v>39</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="115.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="99">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -896,13 +911,13 @@
         <v>44</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="148.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="132">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -925,10 +940,10 @@
         <v>49</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD011588-E5CA-409D-8CBF-E32CE5D39C2F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5DD6C5-B601-4EF3-A70D-8F647A1D09CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC287588-4902-284B-8A00-4B432DEC9D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17860" windowHeight="16380" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheet" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
   <si>
     <t>业务编号</t>
   </si>
@@ -270,20 +270,23 @@
     <t>{"isApp":"N","isTransmit":{"tokenName":[["token","applicationToken"],["Authorization","applicationToken"]],"transmitName":[["cityId",{"valueKey":"cityId","getValuePath":"city-北京市-cityId"}],["brokerageTypeId",{"valueKey":"brokerageTypeCode","getValuePath":"brokerageTypeCode-YJ20200506000002-id"}]]}}</t>
   </si>
   <si>
-    <t>{"code":{"jsonExpectValue":"1000","getValuePath":""}}</t>
-  </si>
-  <si>
     <t>{"code":{"jsonExpectValue":"1000","getValuePath":""},"estateProjectDevId":{"jsonExpectValue":"11392","getValuePath":"name-大股东法国队-devId"}}</t>
   </si>
   <si>
     <t>{"code":{"jsonExpectValue":"200","getValuePath":""}}</t>
+  </si>
+  <si>
+    <t>expectData</t>
+  </si>
+  <si>
+    <t>{"code":"1000"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -381,8 +384,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,7 +401,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -696,18 +699,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCB4D60-8B68-4C7E-8A4E-DB3836BFA279}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +757,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="132">
+    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -780,7 +783,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -801,7 +804,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="115.5">
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -827,10 +830,10 @@
         <v>54</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="219">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -856,10 +859,10 @@
         <v>55</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="162">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -885,10 +888,10 @@
         <v>39</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="99">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -914,10 +917,10 @@
         <v>56</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="132">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -943,7 +946,7 @@
         <v>57</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -958,19 +961,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD011588-E5CA-409D-8CBF-E32CE5D39C2F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -980,8 +983,11 @@
       <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="63">
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -992,7 +998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5">
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -1016,14 +1022,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1076,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="132">
+    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1117,7 +1123,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="132">
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="219">
+    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="147.75">
+    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="82.5">
+    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="110.25">
+    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1279,13 +1285,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63">
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC287588-4902-284B-8A00-4B432DEC9D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53759468-9146-418B-903A-43CB8F1C8DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17860" windowHeight="16380" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheet" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
   <si>
     <t>业务编号</t>
   </si>
@@ -258,35 +258,38 @@
     <t>{"WEBYJ01":{"userMobile":15718868478,"userPD":"123456"}}</t>
   </si>
   <si>
-    <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["brokerCode",{"valueKey":"brokerCode","getValuePath":""}],["token",{"valueKey":"token","getValuePath":""}],["brokerCity",{"valueKey":"brokerCity","getValuePath":""}]]}}</t>
-  </si>
-  <si>
-    <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["brokerCode",{"valueKey":"brokerCode","getValuePath":""}],["estateProjectDevName",{"valueKey":"name","getValuePath":"devId-11392-name"}],["estateProjectDevId",{"valueKey":"devId","getValuePath":"name-大股东法国队-devId"}]]}}</t>
-  </si>
-  <si>
-    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","applicationToken"],["Authorization","applicationToken"]],"transmitName":[["token",{"valueKey":"token","getValuePath":""}],["applicationToken",{"valueKey":"applicationToken","getValuePath":""}]]}}</t>
-  </si>
-  <si>
-    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","applicationToken"],["Authorization","applicationToken"]],"transmitName":[["cityId",{"valueKey":"cityId","getValuePath":"city-北京市-cityId"}],["brokerageTypeId",{"valueKey":"brokerageTypeCode","getValuePath":"brokerageTypeCode-YJ20200506000002-id"}]]}}</t>
-  </si>
-  <si>
-    <t>{"code":{"jsonExpectValue":"1000","getValuePath":""},"estateProjectDevId":{"jsonExpectValue":"11392","getValuePath":"name-大股东法国队-devId"}}</t>
-  </si>
-  <si>
-    <t>{"code":{"jsonExpectValue":"200","getValuePath":""}}</t>
-  </si>
-  <si>
     <t>expectData</t>
   </si>
   <si>
-    <t>{"code":"1000"}</t>
+    <t>{"code":"1000","estateProjectDevId":{"name-大股东法国队":"11392"}}</t>
+  </si>
+  <si>
+    <t>{"code":"200"}</t>
+  </si>
+  <si>
+    <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["brokerCode","brokerCode"],["estateProjectDevName",{"name":"devId-11392"}],["estateProjectDevId",{"devId":"name-大股东法国队"}]]}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","applicationToken"],["Authorization","applicationToken"]],"transmitName":[["token","token"],["applicationToken","applicationToken"]]}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"N","isTransmit":{"tokenName":[["token","applicationToken"],["Authorization","applicationToken"]],"transmitName":[["cityId",{"cityId":"city-北京市"}],["brokerageTypeId",{"brokerageTypeCode":"brokerageTypeCode-YJ20200506000002"}]]}}</t>
+  </si>
+  <si>
+    <t>{"code":"{code}"}</t>
+  </si>
+  <si>
+    <t>{"BOHUI01":{"code":"1000"}}</t>
+  </si>
+  <si>
+    <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["brokerCode","brokerCode"],["token","token"],["brokerCity","brokerCity"]]}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -384,8 +387,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -401,7 +404,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -699,18 +702,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCB4D60-8B68-4C7E-8A4E-DB3836BFA279}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +760,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="132">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -783,7 +786,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -804,7 +807,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="110.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -827,13 +830,13 @@
         <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="219">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -856,13 +859,13 @@
         <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="162">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -888,10 +891,10 @@
         <v>39</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="102" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="82.5">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -914,13 +917,13 @@
         <v>44</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" ht="115.5">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -943,10 +946,10 @@
         <v>49</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -964,16 +967,17 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -983,11 +987,11 @@
       <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="63">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -997,8 +1001,11 @@
       <c r="C2" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D2" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -1022,14 +1029,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1083,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="132">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1123,7 +1130,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="132">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="219">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1181,7 +1188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="147.75">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="82.5">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1239,7 +1246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="110.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1285,13 +1292,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="63">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53759468-9146-418B-903A-43CB8F1C8DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DFDDAD-8B22-7840-87E9-80FE32F7DF62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" activeTab="2" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheet" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
   <si>
     <t>业务编号</t>
   </si>
@@ -258,9 +258,6 @@
     <t>{"WEBYJ01":{"userMobile":15718868478,"userPD":"123456"}}</t>
   </si>
   <si>
-    <t>expectData</t>
-  </si>
-  <si>
     <t>{"code":"1000","estateProjectDevId":{"name-大股东法国队":"11392"}}</t>
   </si>
   <si>
@@ -283,13 +280,22 @@
   </si>
   <si>
     <t>{"isApp":"Y","isTransmit":{"tokenName":[["token","token"],["brokerCode","brokerCode"]],"transmitName":[["brokerCode","brokerCode"],["token","token"],["brokerCity","brokerCity"]]}}</t>
+  </si>
+  <si>
+    <t>业务ID</t>
+  </si>
+  <si>
+    <t>执行ID</t>
+  </si>
+  <si>
+    <t>参数化</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,8 +393,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -702,18 +708,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCB4D60-8B68-4C7E-8A4E-DB3836BFA279}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +766,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="132">
+    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -786,7 +792,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -807,7 +813,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="110.25">
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -830,13 +836,13 @@
         <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="219">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -859,13 +865,13 @@
         <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="162">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -891,10 +897,10 @@
         <v>39</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="82.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -917,13 +923,13 @@
         <v>44</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="115.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -946,10 +952,10 @@
         <v>49</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -967,31 +973,31 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1002,10 +1008,10 @@
         <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="31.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -1018,6 +1024,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1025,18 +1032,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB8F12-379C-A84D-8F7B-1B4833A489D8}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1090,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="132">
+    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1137,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="132">
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="219">
+    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1188,7 +1195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="147.75">
+    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1217,7 +1224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="82.5">
+    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1246,7 +1253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="110.25">
+    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1292,13 +1299,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1309,7 +1316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63">
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DFDDAD-8B22-7840-87E9-80FE32F7DF62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D5890A-B85A-4344-83E6-DF64E2085A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" activeTab="2" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheet" sheetId="5" r:id="rId1"/>
@@ -295,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,8 +393,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -708,18 +708,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCB4D60-8B68-4C7E-8A4E-DB3836BFA279}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="132">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="110.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -842,7 +842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="219">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -871,7 +871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="162">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -900,7 +900,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="82.5">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -929,7 +929,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="115.5">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -976,14 +976,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16.5">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -997,7 +997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="63">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -1032,18 +1032,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB8F12-379C-A84D-8F7B-1B4833A489D8}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="132">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="132">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="219">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="147.75">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="82.5">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="110.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1299,13 +1299,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="63">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D5890A-B85A-4344-83E6-DF64E2085A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13148A7E-DBB0-AB4A-A38F-38E7BD7E2FFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13180" windowHeight="16380" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="testSheet" sheetId="5" r:id="rId1"/>
-    <sheet name="parameterSheet" sheetId="4" r:id="rId2"/>
-    <sheet name="testCasejModle" sheetId="1" r:id="rId3"/>
-    <sheet name="parameterSheetDmodle" sheetId="3" r:id="rId4"/>
+    <sheet name="testSheetV0.1" sheetId="5" r:id="rId1"/>
+    <sheet name="testSheet" sheetId="6" r:id="rId2"/>
+    <sheet name="parameterSheet" sheetId="4" r:id="rId3"/>
+    <sheet name="testCasejModle" sheetId="1" r:id="rId4"/>
+    <sheet name="parameterSheetDmodle" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
   <si>
     <t>业务编号</t>
   </si>
@@ -290,12 +291,25 @@
   <si>
     <t>参数化</t>
   </si>
+  <si>
+    <t>传递参数</t>
+  </si>
+  <si>
+    <t>{
+"brokerPhone": "15718868478",
+"clientId": "8c82592b934908becdc2374e52dbbc7d",
+"password": "123456"
+}</t>
+  </si>
+  <si>
+    <t>[["brokerCode","brokerCode"],["estateProjectDevName",{"name":"devId-11392"}],["estateProjectDevId",{"devId":"name-大股东法国队"}]]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,6 +360,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -368,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,10 +412,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,7 +434,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -708,18 +732,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCB4D60-8B68-4C7E-8A4E-DB3836BFA279}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +790,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="132">
+    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -813,7 +837,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="110.25">
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -842,7 +866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="219">
+    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -871,7 +895,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="162">
+    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -900,7 +924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="82.5">
+    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -929,7 +953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="115.5">
+    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -969,21 +993,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EA8B4B-F069-4745-9F3E-66C2C8D54FF9}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="221" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{54220A01-477A-7746-B86D-39E635C482EC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD011588-E5CA-409D-8CBF-E32CE5D39C2F}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -997,7 +1097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="63">
+    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5">
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -1028,7 +1128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB8F12-379C-A84D-8F7B-1B4833A489D8}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
@@ -1036,14 +1136,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1190,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="132">
+    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1237,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="132">
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="219">
+    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1195,7 +1295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="147.75">
+    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1224,7 +1324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="82.5">
+    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1253,7 +1353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="110.25">
+    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1291,7 +1391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE82C14-4CC0-0845-AF0A-1A08A1085CF0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1299,13 +1399,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1316,7 +1416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63">
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13148A7E-DBB0-AB4A-A38F-38E7BD7E2FFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12555479-D0FB-4E83-A72C-BE89E482FB23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13180" windowHeight="16380" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="21705" yWindow="6870" windowWidth="13305" windowHeight="7245" firstSheet="1" activeTab="3" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheetV0.1" sheetId="5" r:id="rId1"/>
@@ -309,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -417,8 +417,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -736,14 +736,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +790,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="132">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="110.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -866,7 +866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="219">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -895,7 +895,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="162">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -924,7 +924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="82.5">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -953,7 +953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="115.5">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -996,13 +996,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EA8B4B-F069-4745-9F3E-66C2C8D54FF9}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,13 +1025,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="221" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" ht="198">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1054,10 +1054,10 @@
         <v>66</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1065,6 +1065,7 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{54220A01-477A-7746-B86D-39E635C482EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1076,14 +1077,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16.5">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="63">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="31.5">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -1132,18 +1133,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB8F12-379C-A84D-8F7B-1B4833A489D8}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="27.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="36.375" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1191,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="132">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1238,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="132">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="219">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="147.75">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="82.5">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="110.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1399,13 +1400,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="63">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12555479-D0FB-4E83-A72C-BE89E482FB23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072AAA1-A56B-4AC8-BEA6-DC7E8B7A3828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21705" yWindow="6870" windowWidth="13305" windowHeight="7245" firstSheet="1" activeTab="3" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="21705" yWindow="6870" windowWidth="13305" windowHeight="7245" firstSheet="1" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheetV0.1" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="69">
   <si>
     <t>业务编号</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>[["brokerCode","brokerCode"],["estateProjectDevName",{"name":"devId-11392"}],["estateProjectDevId",{"devId":"name-大股东法国队"}]]</t>
+  </si>
+  <si>
+    <t>文件</t>
   </si>
 </sst>
 </file>
@@ -994,15 +997,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EA8B4B-F069-4745-9F3E-66C2C8D54FF9}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,8 +1033,11 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="198">
+      <c r="J1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="198">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1133,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AB8F12-379C-A84D-8F7B-1B4833A489D8}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3072AAA1-A56B-4AC8-BEA6-DC7E8B7A3828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94D5869-FC90-42A1-8DFF-107F70A8E4D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21705" yWindow="6870" windowWidth="13305" windowHeight="7245" firstSheet="1" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheetV0.1" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
   <si>
     <t>业务编号</t>
   </si>
@@ -303,9 +303,6 @@
   </si>
   <si>
     <t>[["brokerCode","brokerCode"],["estateProjectDevName",{"name":"devId-11392"}],["estateProjectDevId",{"devId":"name-大股东法国队"}]]</t>
-  </si>
-  <si>
-    <t>文件</t>
   </si>
 </sst>
 </file>
@@ -999,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EA8B4B-F069-4745-9F3E-66C2C8D54FF9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1033,9 +1030,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="198">
       <c r="A2" s="2" t="s">
@@ -1079,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD011588-E5CA-409D-8CBF-E32CE5D39C2F}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/testcase/testCaseAll/testCase.xlsx
+++ b/testcase/testCaseAll/testCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\testcase\testCaseAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/testcase/testCaseAll/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94D5869-FC90-42A1-8DFF-107F70A8E4D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45609ABF-8408-7D4E-A0D7-79B6F19CA581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0176AE22-8E6E-C34C-A1E3-FE627DFA2EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="testSheetV0.1" sheetId="5" r:id="rId1"/>
@@ -309,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -417,8 +417,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,7 +434,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -732,18 +732,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCB4D60-8B68-4C7E-8A4E-DB3836BFA279}">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +790,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="132">
+    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="110.25">
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -866,7 +866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="219">
+    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -895,7 +895,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="162">
+    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -924,7 +924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="82.5">
+    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -953,7 +953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="115.5">
+    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -996,13 +996,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EA8B4B-F069-4745-9F3E-66C2C8D54FF9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="198">
+    <row r="2" spans="1:10" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1074,18 +1074,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD011588-E5CA-409D-8CBF-E32CE5D39C2F}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="63">
+    <row r="2" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5">
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -1138,14 +1138,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +1192,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="132">
+    <row r="2" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="132">
+    <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="219">
+    <row r="4" spans="1:27" ht="230" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="147.75">
+    <row r="5" spans="1:27" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="82.5">
+    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="110.25">
+    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1401,13 +1401,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63">
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
